--- a/設計/第一反復統合テスト仕様書.xlsx
+++ b/設計/第一反復統合テスト仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_115f\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Git\MiniProject\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{93C4BF85-66E6-47EE-94CB-4019DF492996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E1BF6D0-091D-46C2-ACC7-92CDEA582CAD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126428EC-2B62-4572-BB9E-8A4CD01DFD11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="375" windowWidth="12900" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReservationCon" sheetId="9" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="71">
   <si>
     <t>タイトル：ReservationCon</t>
     <phoneticPr fontId="2"/>
@@ -247,6 +245,33 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t xml:space="preserve">judge("abc","2020")を入れて、
+値を入れて正しい値を返す。 </t>
+  </si>
+  <si>
+    <t>1memberlistインスタンスを生成する。(コンストラクタでidがabcのmemberインスタンスが生成される。)
+2.Loginのjudgeメソッドに引数(abc　String "2020" String)を渡し、戻り値を確認する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">judge("abcd","2020")を入れて、
+正しい値を返す。 </t>
+  </si>
+  <si>
+    <t>1,MemberListインスタンスmemberListを生成する。（コンストラクタでidが"abc"、pwが"2020"のmemberインスタンスが生成される。）
+2，judgeメソッドに引数("abcd" String,"2020" String)を渡し、戻り値を確認する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">judge("abc","2023")を入れて、
+値を入れて正しい値を返す。 </t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1,MemberListインスタンスmemberListを生成する。（コンストラクタでidが"abcd"、pwが"2020"のmemberインスタンスが生成される。）
+2，judgeメソッドに引数("abcd" String,"2023" String)を渡し、戻り値を確認する</t>
+  </si>
+  <si>
     <t>タイトル：ReservationList</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -307,18 +332,24 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>getMemberList()の値が返ってくるかテストする。</t>
+    <t>getMember(abc).getId()の値が返ってくるかテストする。</t>
   </si>
   <si>
-    <t>1.Menberインスタンスを生成する。
-2.コンストラクタとして、Memberインスタンスを渡し、MemberListインスタンスを生成する。
-3.getMemberListを用いて、返り値として、listが確認できる。</t>
+    <t>1.MenberListインスタンスを生成する。
+2.getMember.getId()を用いて、返り値が確認できる。</t>
   </si>
   <si>
-    <t>戻り値としてlistが返ってくる</t>
+    <t>戻り値としてabcが返ってくる</t>
   </si>
   <si>
-    <t>沼崎</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>城
+沼崎</t>
   </si>
   <si>
     <t>タイトル：ＸＸＸシステム テスト仕様書</t>
@@ -349,41 +380,30 @@
   </si>
   <si>
     <t>1,MemberListインスタンスmemberListを生成する。（コンストラクタでidが"abc"、pwが"2020"のmemberインスタンスが生成される。）
-2，judgeメソッドに引数("abcd" String,"2020" String)を渡し、戻り値を確認する</t>
+2，judgeメソッドに引数("abc" String,"2023" String)を渡し、戻り値を確認する</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1memberlistインスタンスを生成する。(コンストラクタでidがabcのmemberインスタンスが生成される。)
-2.Loginのjudgeメソッドに引数(abc　String "2020" String)を渡し、戻り値を確認する。</t>
+    <t>合格</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">judge("abc","2023")を入れて、
-値を入れて正しい値を返す。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">judge("abc","2020")を入れて、
-値を入れて正しい値を返す。 </t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1,MemberListインスタンスmemberListを生成する。（コンストラクタでidが"abc"、pwが"2020"のmemberインスタンスが生成される。）
-2，judgeメソッドに引数("abcd" String,"2023" String)を渡し、戻り値を確認する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">judge("abcd","2020")を入れて、
-正しい値を返す。 </t>
-  </si>
-  <si>
-    <t>1,MemberListインスタンスmemberListを生成する。（コンストラクタでidが"abcd"、pwが"2020"のmemberインスタンスが生成される。）
-2，judgeメソッドに引数("abcd" String,"2023" String)を渡し、戻り値を確認する</t>
+    <t>城
+沼崎</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -430,6 +450,18 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -638,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,6 +760,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,7 +1117,7 @@
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -1087,8 +1128,8 @@
     <col min="43" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1177,7 @@
       <c r="AR2" s="9"/>
       <c r="AS2" s="9"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1182,7 +1223,7 @@
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1273,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1278,7 +1319,7 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1342,7 +1383,7 @@
       <c r="AR6" s="13"/>
       <c r="AS6" s="16"/>
     </row>
-    <row r="7" spans="2:45" ht="178.5" customHeight="1">
+    <row r="7" spans="2:45" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +1441,7 @@
       <c r="AR7" s="18"/>
       <c r="AS7" s="19"/>
     </row>
-    <row r="8" spans="2:45" ht="152.25" customHeight="1">
+    <row r="8" spans="2:45" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1499,7 @@
       <c r="AR8" s="18"/>
       <c r="AS8" s="19"/>
     </row>
-    <row r="9" spans="2:45" ht="129" customHeight="1">
+    <row r="9" spans="2:45" ht="129" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="20" t="s">
         <v>21</v>
       </c>
@@ -1516,7 +1557,7 @@
       <c r="AR9" s="18"/>
       <c r="AS9" s="19"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="3"/>
@@ -1562,7 +1603,7 @@
       <c r="AR10" s="18"/>
       <c r="AS10" s="19"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="3"/>
@@ -1608,7 +1649,7 @@
       <c r="AR11" s="18"/>
       <c r="AS11" s="19"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="3"/>
@@ -1654,7 +1695,7 @@
       <c r="AR12" s="18"/>
       <c r="AS12" s="19"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="3"/>
@@ -1700,7 +1741,7 @@
       <c r="AR13" s="18"/>
       <c r="AS13" s="19"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="3"/>
@@ -1746,7 +1787,7 @@
       <c r="AR14" s="18"/>
       <c r="AS14" s="19"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="3"/>
@@ -1792,7 +1833,7 @@
       <c r="AR15" s="18"/>
       <c r="AS15" s="19"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="3"/>
@@ -1838,7 +1879,7 @@
       <c r="AR16" s="18"/>
       <c r="AS16" s="19"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="4"/>
@@ -2003,7 +2044,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -2012,8 +2053,8 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
@@ -2061,7 +2102,7 @@
       <c r="AR2" s="9"/>
       <c r="AS2" s="9"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2107,7 +2148,7 @@
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -2157,7 +2198,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2203,7 +2244,7 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -2267,7 +2308,7 @@
       <c r="AR6" s="13"/>
       <c r="AS6" s="16"/>
     </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1">
+    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
@@ -2325,7 +2366,7 @@
       <c r="AR7" s="18"/>
       <c r="AS7" s="19"/>
     </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1">
+    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
@@ -2383,7 +2424,7 @@
       <c r="AR8" s="18"/>
       <c r="AS8" s="19"/>
     </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1">
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="20" t="s">
         <v>21</v>
       </c>
@@ -2441,7 +2482,7 @@
       <c r="AR9" s="18"/>
       <c r="AS9" s="19"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="3"/>
@@ -2487,7 +2528,7 @@
       <c r="AR10" s="18"/>
       <c r="AS10" s="19"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="3"/>
@@ -2533,7 +2574,7 @@
       <c r="AR11" s="18"/>
       <c r="AS11" s="19"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="3"/>
@@ -2579,7 +2620,7 @@
       <c r="AR12" s="18"/>
       <c r="AS12" s="19"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="3"/>
@@ -2625,7 +2666,7 @@
       <c r="AR13" s="18"/>
       <c r="AS13" s="19"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="3"/>
@@ -2671,7 +2712,7 @@
       <c r="AR14" s="18"/>
       <c r="AS14" s="19"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="3"/>
@@ -2717,7 +2758,7 @@
       <c r="AR15" s="18"/>
       <c r="AS15" s="19"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="3"/>
@@ -2763,7 +2804,7 @@
       <c r="AR16" s="18"/>
       <c r="AS16" s="19"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="4"/>
@@ -2924,11 +2965,11 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:S6"/>
+    <sheetView tabSelected="1" topLeftCell="J6" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP8" sqref="AP8:AS8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -2937,8 +2978,8 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
@@ -2986,7 +3027,7 @@
       <c r="AR2" s="9"/>
       <c r="AS2" s="9"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3032,7 +3073,7 @@
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -3082,7 +3123,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3128,7 +3169,7 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -3192,16 +3233,16 @@
       <c r="AR6" s="13"/>
       <c r="AS6" s="16"/>
     </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1">
+    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -3224,17 +3265,21 @@
       <c r="V7" s="23"/>
       <c r="W7" s="23"/>
       <c r="X7" s="23"/>
-      <c r="Y7" s="18"/>
+      <c r="Y7" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
+      <c r="AD7" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
-      <c r="AH7" s="18" t="s">
-        <v>52</v>
+      <c r="AH7" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
@@ -3250,16 +3295,16 @@
       <c r="AR7" s="18"/>
       <c r="AS7" s="19"/>
     </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1">
+    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -3282,17 +3327,21 @@
       <c r="V8" s="23"/>
       <c r="W8" s="23"/>
       <c r="X8" s="23"/>
-      <c r="Y8" s="18"/>
+      <c r="Y8" s="18" t="b">
+        <v>0</v>
+      </c>
       <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
       <c r="AB8" s="18"/>
       <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
+      <c r="AD8" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="AE8" s="18"/>
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
-      <c r="AH8" s="18" t="s">
-        <v>52</v>
+      <c r="AH8" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="AI8" s="18"/>
       <c r="AJ8" s="18"/>
@@ -3308,16 +3357,16 @@
       <c r="AR8" s="18"/>
       <c r="AS8" s="19"/>
     </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1">
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -3340,17 +3389,21 @@
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
       <c r="X9" s="23"/>
-      <c r="Y9" s="18"/>
+      <c r="Y9" s="18" t="b">
+        <v>0</v>
+      </c>
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
+      <c r="AD9" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
       <c r="AG9" s="18"/>
-      <c r="AH9" s="18" t="s">
-        <v>52</v>
+      <c r="AH9" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="AI9" s="18"/>
       <c r="AJ9" s="18"/>
@@ -3366,16 +3419,16 @@
       <c r="AR9" s="18"/>
       <c r="AS9" s="19"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="20" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -3398,17 +3451,21 @@
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
       <c r="X10" s="23"/>
-      <c r="Y10" s="18"/>
+      <c r="Y10" s="18" t="b">
+        <v>0</v>
+      </c>
       <c r="Z10" s="18"/>
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
+      <c r="AD10" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="AE10" s="18"/>
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
-      <c r="AH10" s="18" t="s">
-        <v>52</v>
+      <c r="AH10" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="AI10" s="18"/>
       <c r="AJ10" s="18"/>
@@ -3424,7 +3481,7 @@
       <c r="AR10" s="18"/>
       <c r="AS10" s="19"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="3"/>
@@ -3470,7 +3527,7 @@
       <c r="AR11" s="18"/>
       <c r="AS11" s="19"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="3"/>
@@ -3516,7 +3573,7 @@
       <c r="AR12" s="18"/>
       <c r="AS12" s="19"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="3"/>
@@ -3562,7 +3619,7 @@
       <c r="AR13" s="18"/>
       <c r="AS13" s="19"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="3"/>
@@ -3608,7 +3665,7 @@
       <c r="AR14" s="18"/>
       <c r="AS14" s="19"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="3"/>
@@ -3654,7 +3711,7 @@
       <c r="AR15" s="18"/>
       <c r="AS15" s="19"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="3"/>
@@ -3700,7 +3757,7 @@
       <c r="AR16" s="18"/>
       <c r="AS16" s="19"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="4"/>
@@ -3865,7 +3922,7 @@
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -3874,10 +3931,10 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3923,7 +3980,7 @@
       <c r="AR2" s="9"/>
       <c r="AS2" s="9"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3969,7 +4026,7 @@
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -4019,7 +4076,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -4065,7 +4122,7 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -4129,7 +4186,7 @@
       <c r="AR6" s="13"/>
       <c r="AS6" s="16"/>
     </row>
-    <row r="7" spans="2:45" ht="134.25" customHeight="1">
+    <row r="7" spans="2:45" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
@@ -4138,7 +4195,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -4187,16 +4244,16 @@
       <c r="AR7" s="18"/>
       <c r="AS7" s="19"/>
     </row>
-    <row r="8" spans="2:45" ht="112.5" customHeight="1">
+    <row r="8" spans="2:45" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -4213,7 +4270,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
       <c r="T8" s="22" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
@@ -4245,7 +4302,7 @@
       <c r="AR8" s="18"/>
       <c r="AS8" s="19"/>
     </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1">
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="3"/>
@@ -4291,7 +4348,7 @@
       <c r="AR9" s="18"/>
       <c r="AS9" s="19"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="3"/>
@@ -4337,7 +4394,7 @@
       <c r="AR10" s="18"/>
       <c r="AS10" s="19"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="3"/>
@@ -4383,7 +4440,7 @@
       <c r="AR11" s="18"/>
       <c r="AS11" s="19"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="3"/>
@@ -4429,7 +4486,7 @@
       <c r="AR12" s="18"/>
       <c r="AS12" s="19"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="3"/>
@@ -4475,7 +4532,7 @@
       <c r="AR13" s="18"/>
       <c r="AS13" s="19"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="3"/>
@@ -4521,7 +4578,7 @@
       <c r="AR14" s="18"/>
       <c r="AS14" s="19"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="3"/>
@@ -4567,7 +4624,7 @@
       <c r="AR15" s="18"/>
       <c r="AS15" s="19"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="3"/>
@@ -4613,7 +4670,7 @@
       <c r="AR16" s="18"/>
       <c r="AS16" s="19"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="4"/>
@@ -4775,10 +4832,10 @@
   <dimension ref="B1:AS17"/>
   <sheetViews>
     <sheetView zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E8" sqref="E8:S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -4787,8 +4844,8 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
@@ -4836,7 +4893,7 @@
       <c r="AR2" s="9"/>
       <c r="AS2" s="9"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -4882,7 +4939,7 @@
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -4932,7 +4989,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -4978,7 +5035,7 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -5042,16 +5099,16 @@
       <c r="AR6" s="13"/>
       <c r="AS6" s="16"/>
     </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1">
+    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -5100,16 +5157,16 @@
       <c r="AR7" s="18"/>
       <c r="AS7" s="19"/>
     </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1">
+    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -5158,16 +5215,16 @@
       <c r="AR8" s="18"/>
       <c r="AS8" s="19"/>
     </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1">
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -5216,7 +5273,7 @@
       <c r="AR9" s="18"/>
       <c r="AS9" s="19"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="3"/>
@@ -5262,7 +5319,7 @@
       <c r="AR10" s="18"/>
       <c r="AS10" s="19"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="3"/>
@@ -5308,7 +5365,7 @@
       <c r="AR11" s="18"/>
       <c r="AS11" s="19"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="3"/>
@@ -5354,7 +5411,7 @@
       <c r="AR12" s="18"/>
       <c r="AS12" s="19"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="3"/>
@@ -5400,7 +5457,7 @@
       <c r="AR13" s="18"/>
       <c r="AS13" s="19"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="3"/>
@@ -5446,7 +5503,7 @@
       <c r="AR14" s="18"/>
       <c r="AS14" s="19"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="3"/>
@@ -5492,7 +5549,7 @@
       <c r="AR15" s="18"/>
       <c r="AS15" s="19"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="3"/>
@@ -5538,7 +5595,7 @@
       <c r="AR16" s="18"/>
       <c r="AS16" s="19"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="4"/>
@@ -5699,11 +5756,11 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8:AG8"/>
+    <sheetView topLeftCell="A22" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -5712,10 +5769,10 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -5761,7 +5818,7 @@
       <c r="AR2" s="9"/>
       <c r="AS2" s="9"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -5807,7 +5864,7 @@
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -5857,7 +5914,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -5903,7 +5960,7 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -5967,16 +6024,16 @@
       <c r="AR6" s="13"/>
       <c r="AS6" s="16"/>
     </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1">
+    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -5993,23 +6050,27 @@
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
       <c r="T7" s="22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
       <c r="W7" s="23"/>
       <c r="X7" s="23"/>
-      <c r="Y7" s="18"/>
+      <c r="Y7" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
+      <c r="AD7" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
-      <c r="AH7" s="18" t="s">
-        <v>52</v>
+      <c r="AH7" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
@@ -6025,7 +6086,7 @@
       <c r="AR7" s="18"/>
       <c r="AS7" s="19"/>
     </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1">
+    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="3"/>
@@ -6071,7 +6132,7 @@
       <c r="AR8" s="18"/>
       <c r="AS8" s="19"/>
     </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1">
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="3"/>
@@ -6117,7 +6178,7 @@
       <c r="AR9" s="18"/>
       <c r="AS9" s="19"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="3"/>
@@ -6163,7 +6224,7 @@
       <c r="AR10" s="18"/>
       <c r="AS10" s="19"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="3"/>
@@ -6209,7 +6270,7 @@
       <c r="AR11" s="18"/>
       <c r="AS11" s="19"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="3"/>
@@ -6255,7 +6316,7 @@
       <c r="AR12" s="18"/>
       <c r="AS12" s="19"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="3"/>
@@ -6301,7 +6362,7 @@
       <c r="AR13" s="18"/>
       <c r="AS13" s="19"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="3"/>
@@ -6347,7 +6408,7 @@
       <c r="AR14" s="18"/>
       <c r="AS14" s="19"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="3"/>
@@ -6393,7 +6454,7 @@
       <c r="AR15" s="18"/>
       <c r="AS15" s="19"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="3"/>
@@ -6439,7 +6500,7 @@
       <c r="AR16" s="18"/>
       <c r="AS16" s="19"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="4"/>
@@ -6604,7 +6665,7 @@
       <selection activeCell="E8" sqref="E8:S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -6613,10 +6674,10 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -6662,7 +6723,7 @@
       <c r="AR2" s="9"/>
       <c r="AS2" s="9"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -6708,13 +6769,13 @@
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6758,7 +6819,7 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -6804,7 +6865,7 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="2:45">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -6868,16 +6929,16 @@
       <c r="AR6" s="13"/>
       <c r="AS6" s="16"/>
     </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1">
+    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -6894,7 +6955,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
       <c r="T7" s="22" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
@@ -6922,7 +6983,7 @@
       <c r="AR7" s="18"/>
       <c r="AS7" s="19"/>
     </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1">
+    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="3"/>
@@ -6968,7 +7029,7 @@
       <c r="AR8" s="18"/>
       <c r="AS8" s="19"/>
     </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1">
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="3"/>
@@ -7014,7 +7075,7 @@
       <c r="AR9" s="18"/>
       <c r="AS9" s="19"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1">
+    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="3"/>
@@ -7060,7 +7121,7 @@
       <c r="AR10" s="18"/>
       <c r="AS10" s="19"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
+    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="3"/>
@@ -7106,7 +7167,7 @@
       <c r="AR11" s="18"/>
       <c r="AS11" s="19"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
+    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="3"/>
@@ -7152,7 +7213,7 @@
       <c r="AR12" s="18"/>
       <c r="AS12" s="19"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
+    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="3"/>
@@ -7198,7 +7259,7 @@
       <c r="AR13" s="18"/>
       <c r="AS13" s="19"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
+    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="3"/>
@@ -7244,7 +7305,7 @@
       <c r="AR14" s="18"/>
       <c r="AS14" s="19"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
+    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="3"/>
@@ -7290,7 +7351,7 @@
       <c r="AR15" s="18"/>
       <c r="AS15" s="19"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
+    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="3"/>
@@ -7336,7 +7397,7 @@
       <c r="AR16" s="18"/>
       <c r="AS16" s="19"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="4"/>
@@ -7491,21 +7552,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7689,15 +7741,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7706,7 +7759,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3890EB37-436B-45C5-80D4-739A5192B0DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7722,4 +7775,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>